--- a/Experiements Result/P-1.xlsx
+++ b/Experiements Result/P-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="53">
   <si>
     <t>Query no: 1</t>
   </si>
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z153"/>
+  <dimension ref="A1:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1982,7 @@
         <v>298</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:M52" si="5">POWER((H44-G44),2)</f>
+        <f t="shared" ref="L44:L52" si="5">POWER((H44-G44),2)</f>
         <v>4900</v>
       </c>
       <c r="M44">
@@ -4555,7 +4555,7 @@
         <v>2503</v>
       </c>
       <c r="L96">
-        <f t="shared" ref="L96:M104" si="14">POWER((H96-G96),2)</f>
+        <f t="shared" ref="L96:L104" si="14">POWER((H96-G96),2)</f>
         <v>253009</v>
       </c>
       <c r="M96">
@@ -5047,7 +5047,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B106" t="s">
         <v>49</v>
@@ -5056,14 +5056,8 @@
         <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
-      </c>
-      <c r="U106" s="9"/>
-      <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="9"/>
-      <c r="Z106" s="9"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -5122,489 +5116,514 @@
       <c r="A108">
         <v>1</v>
       </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108">
-        <v>5</v>
+      <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" t="s">
+        <v>40</v>
       </c>
       <c r="D108">
         <v>8</v>
       </c>
       <c r="E108">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F108">
-        <v>600</v>
+        <v>61</v>
       </c>
       <c r="G108">
-        <v>600</v>
+        <v>61</v>
       </c>
       <c r="H108">
-        <v>1451</v>
+        <v>112</v>
       </c>
       <c r="I108">
-        <v>521</v>
+        <v>4</v>
+      </c>
+      <c r="J108">
+        <v>61</v>
+      </c>
+      <c r="K108">
+        <v>61</v>
       </c>
       <c r="L108">
         <f>POWER((H108-G108),2)</f>
-        <v>724201</v>
+        <v>2601</v>
       </c>
       <c r="M108">
-        <v>724201</v>
+        <v>2601</v>
       </c>
       <c r="N108">
         <f>POWER((H108-I108),2)</f>
-        <v>864900</v>
+        <v>11664</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="P108">
-        <v>4</v>
-      </c>
-      <c r="Q108" s="9">
-        <v>4</v>
-      </c>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
+        <f>O108</f>
+        <v>64</v>
+      </c>
+      <c r="Q108">
+        <v>16</v>
+      </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
-      <c r="B109">
-        <v>9</v>
-      </c>
-      <c r="C109">
-        <v>9</v>
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s">
+        <v>42</v>
       </c>
       <c r="D109">
         <v>7</v>
       </c>
       <c r="E109">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F109">
-        <v>2000</v>
+        <v>94</v>
       </c>
       <c r="G109">
-        <v>2000</v>
+        <v>94</v>
       </c>
       <c r="H109">
-        <v>2503</v>
+        <v>173</v>
       </c>
       <c r="I109">
-        <v>2503</v>
+        <v>65</v>
+      </c>
+      <c r="J109">
+        <v>94</v>
+      </c>
+      <c r="K109">
+        <v>94</v>
       </c>
       <c r="L109">
         <f t="shared" ref="L109:L117" si="16">POWER((H109-G109),2)</f>
-        <v>253009</v>
+        <v>6241</v>
       </c>
       <c r="M109">
-        <v>253009</v>
+        <v>6241</v>
       </c>
       <c r="N109">
         <f t="shared" ref="N109:N117" si="17">POWER((H109-I109),2)</f>
-        <v>0</v>
+        <v>11664</v>
       </c>
       <c r="O109">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P109">
-        <v>9</v>
+        <f t="shared" ref="P109:P118" si="18">O109</f>
+        <v>1</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
-      <c r="B110">
-        <v>8</v>
-      </c>
-      <c r="C110">
-        <v>8</v>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s">
+        <v>41</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>2634</v>
+        <v>124</v>
       </c>
       <c r="G110">
-        <v>2634</v>
+        <v>124</v>
       </c>
       <c r="H110">
-        <v>3426</v>
+        <v>220</v>
       </c>
       <c r="I110">
-        <v>3000</v>
+        <v>98</v>
+      </c>
+      <c r="J110">
+        <v>124</v>
+      </c>
+      <c r="K110">
+        <v>124</v>
       </c>
       <c r="L110">
         <f t="shared" si="16"/>
-        <v>627264</v>
+        <v>9216</v>
       </c>
       <c r="M110">
-        <v>627264</v>
+        <v>9216</v>
       </c>
       <c r="N110">
         <f t="shared" si="17"/>
-        <v>181476</v>
+        <v>14884</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P110">
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>9</v>
       </c>
       <c r="Q110">
-        <v>9</v>
-      </c>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-      <c r="X110" s="8"/>
-      <c r="Y110" s="8"/>
-      <c r="Z110" s="8"/>
-    </row>
-    <row r="111" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>39</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>2916</v>
-      </c>
-      <c r="G111" s="9">
-        <v>2916</v>
+        <v>151</v>
+      </c>
+      <c r="G111">
+        <v>151</v>
       </c>
       <c r="H111">
-        <v>4259</v>
+        <v>253</v>
       </c>
       <c r="I111">
-        <v>4259</v>
-      </c>
-      <c r="J111"/>
-      <c r="K111"/>
+        <v>101</v>
+      </c>
+      <c r="J111">
+        <v>148</v>
+      </c>
+      <c r="K111">
+        <v>148</v>
+      </c>
       <c r="L111">
         <f t="shared" si="16"/>
-        <v>1803649</v>
+        <v>10404</v>
       </c>
       <c r="M111">
-        <v>1803649</v>
+        <v>10404</v>
       </c>
       <c r="N111">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>25104</v>
       </c>
       <c r="O111">
         <v>4</v>
       </c>
       <c r="P111">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="Q111">
         <v>1</v>
       </c>
-      <c r="R111"/>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="U111"/>
-      <c r="V111"/>
-      <c r="W111"/>
-      <c r="X111"/>
-      <c r="Y111"/>
-      <c r="Z111"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
-      <c r="B112">
-        <v>7</v>
-      </c>
-      <c r="C112">
-        <v>7</v>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>36</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F112">
-        <v>4082</v>
-      </c>
-      <c r="G112" s="9">
-        <v>4082</v>
+        <v>163</v>
+      </c>
+      <c r="G112">
+        <v>163</v>
       </c>
       <c r="H112">
-        <v>5246</v>
+        <v>283</v>
       </c>
       <c r="I112">
-        <v>5246</v>
+        <v>213</v>
+      </c>
+      <c r="J112">
+        <v>170</v>
+      </c>
+      <c r="K112">
+        <v>170</v>
       </c>
       <c r="L112">
         <f t="shared" si="16"/>
-        <v>1354896</v>
+        <v>14400</v>
       </c>
       <c r="M112">
-        <v>1354896</v>
+        <v>14400</v>
       </c>
       <c r="N112">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="O112">
         <v>4</v>
       </c>
       <c r="P112">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="Q112">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>3</v>
+      <c r="B113" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" t="s">
+        <v>34</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F113">
-        <v>5052</v>
-      </c>
-      <c r="G113" s="9">
-        <v>5052</v>
+        <v>210</v>
+      </c>
+      <c r="G113">
+        <v>210</v>
       </c>
       <c r="H113">
-        <v>6123</v>
+        <v>310</v>
       </c>
       <c r="I113">
-        <v>6000</v>
+        <v>243</v>
+      </c>
+      <c r="J113">
+        <v>187</v>
+      </c>
+      <c r="K113">
+        <v>187</v>
       </c>
       <c r="L113">
         <f t="shared" si="16"/>
-        <v>1147041</v>
+        <v>10000</v>
       </c>
       <c r="M113">
-        <v>1147041</v>
+        <v>10000</v>
       </c>
       <c r="N113">
         <f t="shared" si="17"/>
-        <v>15129</v>
+        <v>4489</v>
       </c>
       <c r="O113">
         <v>4</v>
       </c>
       <c r="P113">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="Q113">
         <v>1</v>
       </c>
-      <c r="U113" s="9"/>
-      <c r="V113" s="9"/>
-      <c r="W113" s="9"/>
-      <c r="X113" s="9"/>
-      <c r="Y113" s="9"/>
-      <c r="Z113" s="9"/>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>35</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>6178</v>
-      </c>
-      <c r="G114" s="9">
-        <v>6178</v>
+        <v>220</v>
+      </c>
+      <c r="G114">
+        <v>220</v>
       </c>
       <c r="H114">
-        <v>6898</v>
+        <v>322</v>
       </c>
       <c r="I114">
-        <v>6178</v>
+        <v>271</v>
+      </c>
+      <c r="J114">
+        <v>195</v>
+      </c>
+      <c r="K114">
+        <v>195</v>
       </c>
       <c r="L114">
         <f t="shared" si="16"/>
-        <v>518400</v>
+        <v>10404</v>
       </c>
       <c r="M114">
-        <v>518400</v>
+        <v>10404</v>
       </c>
       <c r="N114">
         <f t="shared" si="17"/>
-        <v>518400</v>
+        <v>2601</v>
       </c>
       <c r="O114">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>25</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>8</v>
       </c>
-      <c r="B115">
-        <v>4</v>
-      </c>
-      <c r="C115">
-        <v>4</v>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" t="s">
+        <v>37</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F115">
-        <v>7164</v>
-      </c>
-      <c r="G115" s="9">
-        <v>7164</v>
+        <v>223</v>
+      </c>
+      <c r="G115">
+        <v>223</v>
       </c>
       <c r="H115">
-        <v>7631</v>
+        <v>332</v>
       </c>
       <c r="I115">
-        <v>6178</v>
-      </c>
-      <c r="J115"/>
-      <c r="K115"/>
+        <v>293</v>
+      </c>
+      <c r="J115">
+        <v>203</v>
+      </c>
+      <c r="K115">
+        <v>203</v>
+      </c>
       <c r="L115">
         <f t="shared" si="16"/>
-        <v>218089</v>
+        <v>11881</v>
       </c>
       <c r="M115">
-        <v>218089</v>
+        <v>11881</v>
       </c>
       <c r="N115">
         <f t="shared" si="17"/>
-        <v>2111209</v>
+        <v>1521</v>
       </c>
       <c r="O115">
         <v>1</v>
       </c>
       <c r="P115">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>49</v>
-      </c>
-      <c r="R115"/>
-      <c r="S115"/>
-      <c r="T115"/>
-      <c r="U115"/>
-      <c r="V115"/>
-      <c r="W115"/>
-      <c r="X115"/>
-      <c r="Y115"/>
-      <c r="Z115"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9</v>
       </c>
-      <c r="B116">
-        <v>6</v>
-      </c>
-      <c r="C116">
-        <v>6</v>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E116">
         <v>2</v>
       </c>
       <c r="F116">
-        <v>9845</v>
-      </c>
-      <c r="G116" s="9">
-        <v>9845</v>
+        <v>335</v>
+      </c>
+      <c r="G116">
+        <v>335</v>
       </c>
       <c r="H116">
-        <v>9845</v>
+        <v>340</v>
       </c>
       <c r="I116">
-        <v>8000</v>
+        <v>340</v>
+      </c>
+      <c r="J116">
+        <v>210</v>
+      </c>
+      <c r="K116">
+        <v>210</v>
       </c>
       <c r="L116">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N116">
         <f t="shared" si="17"/>
-        <v>3404025</v>
+        <v>0</v>
       </c>
       <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q116">
         <v>64</v>
       </c>
-      <c r="P116">
-        <v>64</v>
-      </c>
-      <c r="Q116">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10</v>
       </c>
-      <c r="B117">
-        <v>10</v>
-      </c>
-      <c r="C117">
-        <v>10</v>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="s">
+        <v>43</v>
       </c>
       <c r="D117">
         <v>10</v>
@@ -5613,16 +5632,22 @@
         <v>10</v>
       </c>
       <c r="F117">
-        <v>9845</v>
-      </c>
-      <c r="G117" s="9">
-        <v>9845</v>
+        <v>340</v>
+      </c>
+      <c r="G117">
+        <v>340</v>
       </c>
       <c r="H117">
-        <v>9845</v>
+        <v>340</v>
       </c>
       <c r="I117">
-        <v>9845</v>
+        <v>340</v>
+      </c>
+      <c r="J117">
+        <v>214</v>
+      </c>
+      <c r="K117">
+        <v>214</v>
       </c>
       <c r="L117">
         <f t="shared" si="16"/>
@@ -5636,74 +5661,56 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
+    <row r="118" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L118" s="8">
         <f>SUM(L108:L117)/10</f>
-        <v>664654.9</v>
+        <v>7517.2</v>
       </c>
       <c r="M118" s="8">
-        <v>664654.9</v>
+        <v>7517.2</v>
       </c>
       <c r="N118" s="8">
         <f>SUM(N108:N117)/10</f>
-        <v>709513.9</v>
+        <v>7682.7</v>
       </c>
       <c r="O118" s="8">
         <f>SUM(O108:O117)/10</f>
-        <v>11.6</v>
+        <v>9.6</v>
       </c>
       <c r="P118" s="8">
-        <v>11.6</v>
+        <f t="shared" si="18"/>
+        <v>9.6</v>
       </c>
       <c r="Q118" s="8">
         <f>SUM(Q108:Q117)/10</f>
-        <v>17.2</v>
-      </c>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118"/>
-      <c r="V118"/>
-      <c r="W118"/>
-      <c r="X118"/>
-      <c r="Y118"/>
-      <c r="Z118"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C119" t="s">
         <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -5756,7 +5763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -5812,7 +5819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -5847,28 +5854,28 @@
         <v>94</v>
       </c>
       <c r="L122">
-        <f t="shared" ref="L122:L130" si="18">POWER((H122-G122),2)</f>
+        <f t="shared" ref="L122:L130" si="19">POWER((H122-G122),2)</f>
         <v>6241</v>
       </c>
       <c r="M122">
         <v>6241</v>
       </c>
       <c r="N122">
-        <f t="shared" ref="N122:N130" si="19">POWER((H122-I122),2)</f>
+        <f t="shared" ref="N122:N123" si="20">POWER((H122-I122),2)</f>
         <v>11664</v>
       </c>
       <c r="O122">
         <v>1</v>
       </c>
       <c r="P122">
-        <f t="shared" ref="P122:P132" si="20">O122</f>
+        <f t="shared" ref="P122:P131" si="21">O122</f>
         <v>1</v>
       </c>
       <c r="Q122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -5903,28 +5910,28 @@
         <v>124</v>
       </c>
       <c r="L123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9216</v>
       </c>
       <c r="M123">
         <v>9216</v>
       </c>
       <c r="N123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>14884</v>
       </c>
       <c r="O123">
         <v>9</v>
       </c>
       <c r="P123">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="Q123">
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -5959,7 +5966,7 @@
         <v>148</v>
       </c>
       <c r="L124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10404</v>
       </c>
       <c r="M124">
@@ -5972,14 +5979,14 @@
         <v>4</v>
       </c>
       <c r="P124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="Q124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -6014,28 +6021,28 @@
         <v>170</v>
       </c>
       <c r="L125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14400</v>
       </c>
       <c r="M125">
         <v>14400</v>
       </c>
       <c r="N125">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="N125:N130" si="22">POWER((H125-I125),2)</f>
         <v>4900</v>
       </c>
       <c r="O125">
         <v>4</v>
       </c>
       <c r="P125">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="Q125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -6070,28 +6077,28 @@
         <v>187</v>
       </c>
       <c r="L126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10000</v>
       </c>
       <c r="M126">
         <v>10000</v>
       </c>
       <c r="N126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4489</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="Q126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -6126,28 +6133,28 @@
         <v>195</v>
       </c>
       <c r="L127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10404</v>
       </c>
       <c r="M127">
         <v>10404</v>
       </c>
       <c r="N127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2601</v>
       </c>
       <c r="O127">
         <v>4</v>
       </c>
       <c r="P127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="Q127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -6182,21 +6189,21 @@
         <v>203</v>
       </c>
       <c r="L128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11881</v>
       </c>
       <c r="M128">
         <v>11881</v>
       </c>
       <c r="N128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1521</v>
       </c>
       <c r="O128">
         <v>1</v>
       </c>
       <c r="P128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Q128">
@@ -6238,21 +6245,21 @@
         <v>210</v>
       </c>
       <c r="L129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="M129">
         <v>25</v>
       </c>
       <c r="N129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O129">
         <v>1</v>
       </c>
       <c r="P129">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Q129">
@@ -6294,21 +6301,21 @@
         <v>214</v>
       </c>
       <c r="L130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
       <c r="N130">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O130">
         <v>4</v>
       </c>
       <c r="P130">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="Q130">
@@ -6332,7 +6339,7 @@
         <v>9.6</v>
       </c>
       <c r="P131" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.6</v>
       </c>
       <c r="Q131" s="8">
@@ -6340,658 +6347,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" t="s">
-        <v>3</v>
-      </c>
-      <c r="F133" t="s">
-        <v>25</v>
-      </c>
-      <c r="G133" t="s">
-        <v>7</v>
-      </c>
-      <c r="H133" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J133" t="s">
-        <v>9</v>
-      </c>
-      <c r="K133" t="s">
-        <v>10</v>
-      </c>
-      <c r="L133" t="s">
-        <v>11</v>
-      </c>
-      <c r="M133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N133" t="s">
-        <v>12</v>
-      </c>
-      <c r="O133" t="s">
-        <v>13</v>
-      </c>
-      <c r="P133" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134" t="s">
-        <v>40</v>
-      </c>
-      <c r="C134" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134">
-        <v>8</v>
-      </c>
-      <c r="E134">
-        <v>9</v>
-      </c>
-      <c r="F134">
-        <v>61</v>
-      </c>
-      <c r="G134">
-        <v>61</v>
-      </c>
-      <c r="H134">
-        <v>112</v>
-      </c>
-      <c r="I134">
-        <v>4</v>
-      </c>
-      <c r="J134">
-        <v>61</v>
-      </c>
-      <c r="K134">
-        <v>61</v>
-      </c>
-      <c r="L134">
-        <f>POWER((H134-G134),2)</f>
-        <v>2601</v>
-      </c>
-      <c r="M134">
-        <v>2601</v>
-      </c>
-      <c r="N134">
-        <f>POWER((H134-I134),2)</f>
-        <v>11664</v>
-      </c>
-      <c r="O134">
-        <v>64</v>
-      </c>
-      <c r="P134">
-        <f>O134</f>
-        <v>64</v>
-      </c>
-      <c r="Q134">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>2</v>
-      </c>
-      <c r="B135" t="s">
-        <v>42</v>
-      </c>
-      <c r="C135" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135">
-        <v>7</v>
-      </c>
-      <c r="E135">
-        <v>7</v>
-      </c>
-      <c r="F135">
-        <v>94</v>
-      </c>
-      <c r="G135">
-        <v>94</v>
-      </c>
-      <c r="H135">
-        <v>173</v>
-      </c>
-      <c r="I135">
-        <v>65</v>
-      </c>
-      <c r="J135">
-        <v>94</v>
-      </c>
-      <c r="K135">
-        <v>94</v>
-      </c>
-      <c r="L135">
-        <f t="shared" ref="L135:L143" si="21">POWER((H135-G135),2)</f>
-        <v>6241</v>
-      </c>
-      <c r="M135">
-        <v>6241</v>
-      </c>
-      <c r="N135">
-        <f t="shared" ref="N135:N143" si="22">POWER((H135-I135),2)</f>
-        <v>11664</v>
-      </c>
-      <c r="O135">
-        <v>1</v>
-      </c>
-      <c r="P135">
-        <f t="shared" ref="P135:P144" si="23">O135</f>
-        <v>1</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>3</v>
-      </c>
-      <c r="B136" t="s">
-        <v>41</v>
-      </c>
-      <c r="C136" t="s">
-        <v>41</v>
-      </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136">
-        <v>124</v>
-      </c>
-      <c r="G136">
-        <v>124</v>
-      </c>
-      <c r="H136">
-        <v>220</v>
-      </c>
-      <c r="I136">
-        <v>98</v>
-      </c>
-      <c r="J136">
-        <v>124</v>
-      </c>
-      <c r="K136">
-        <v>124</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="21"/>
-        <v>9216</v>
-      </c>
-      <c r="M136">
-        <v>9216</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="22"/>
-        <v>14884</v>
-      </c>
-      <c r="O136">
-        <v>9</v>
-      </c>
-      <c r="P136">
-        <f t="shared" si="23"/>
-        <v>9</v>
-      </c>
-      <c r="Q136">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>4</v>
-      </c>
-      <c r="B137" t="s">
-        <v>39</v>
-      </c>
-      <c r="C137" t="s">
-        <v>39</v>
-      </c>
-      <c r="D137">
-        <v>3</v>
-      </c>
-      <c r="E137">
-        <v>4</v>
-      </c>
-      <c r="F137">
-        <v>151</v>
-      </c>
-      <c r="G137">
-        <v>151</v>
-      </c>
-      <c r="H137">
-        <v>253</v>
-      </c>
-      <c r="I137">
-        <v>101</v>
-      </c>
-      <c r="J137">
-        <v>148</v>
-      </c>
-      <c r="K137">
-        <v>148</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="21"/>
-        <v>10404</v>
-      </c>
-      <c r="M137">
-        <v>10404</v>
-      </c>
-      <c r="N137">
-        <v>25104</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="Q137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s">
-        <v>36</v>
-      </c>
-      <c r="C138" t="s">
-        <v>36</v>
-      </c>
-      <c r="D138">
-        <v>6</v>
-      </c>
-      <c r="E138">
-        <v>8</v>
-      </c>
-      <c r="F138">
-        <v>163</v>
-      </c>
-      <c r="G138">
-        <v>163</v>
-      </c>
-      <c r="H138">
-        <v>283</v>
-      </c>
-      <c r="I138">
-        <v>213</v>
-      </c>
-      <c r="J138">
-        <v>170</v>
-      </c>
-      <c r="K138">
-        <v>170</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="21"/>
-        <v>14400</v>
-      </c>
-      <c r="M138">
-        <v>14400</v>
-      </c>
-      <c r="N138">
-        <f t="shared" ref="N138:N144" si="24">POWER((H138-I138),2)</f>
-        <v>4900</v>
-      </c>
-      <c r="O138">
-        <v>4</v>
-      </c>
-      <c r="P138">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>6</v>
-      </c>
-      <c r="B139" t="s">
-        <v>34</v>
-      </c>
-      <c r="C139" t="s">
-        <v>34</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>6</v>
-      </c>
-      <c r="F139">
-        <v>210</v>
-      </c>
-      <c r="G139">
-        <v>210</v>
-      </c>
-      <c r="H139">
-        <v>310</v>
-      </c>
-      <c r="I139">
-        <v>243</v>
-      </c>
-      <c r="J139">
-        <v>187</v>
-      </c>
-      <c r="K139">
-        <v>187</v>
-      </c>
-      <c r="L139">
-        <f t="shared" si="21"/>
-        <v>10000</v>
-      </c>
-      <c r="M139">
-        <v>10000</v>
-      </c>
-      <c r="N139">
-        <f t="shared" si="24"/>
-        <v>4489</v>
-      </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
-      <c r="P139">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="Q139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>7</v>
-      </c>
-      <c r="B140" t="s">
-        <v>35</v>
-      </c>
-      <c r="C140" t="s">
-        <v>35</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>220</v>
-      </c>
-      <c r="G140">
-        <v>220</v>
-      </c>
-      <c r="H140">
-        <v>322</v>
-      </c>
-      <c r="I140">
-        <v>271</v>
-      </c>
-      <c r="J140">
-        <v>195</v>
-      </c>
-      <c r="K140">
-        <v>195</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="21"/>
-        <v>10404</v>
-      </c>
-      <c r="M140">
-        <v>10404</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="24"/>
-        <v>2601</v>
-      </c>
-      <c r="O140">
-        <v>4</v>
-      </c>
-      <c r="P140">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="Q140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>8</v>
-      </c>
-      <c r="B141" t="s">
-        <v>37</v>
-      </c>
-      <c r="C141" t="s">
-        <v>37</v>
-      </c>
-      <c r="D141">
-        <v>4</v>
-      </c>
-      <c r="E141">
-        <v>5</v>
-      </c>
-      <c r="F141">
-        <v>223</v>
-      </c>
-      <c r="G141">
-        <v>223</v>
-      </c>
-      <c r="H141">
-        <v>332</v>
-      </c>
-      <c r="I141">
-        <v>293</v>
-      </c>
-      <c r="J141">
-        <v>203</v>
-      </c>
-      <c r="K141">
-        <v>203</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="21"/>
-        <v>11881</v>
-      </c>
-      <c r="M141">
-        <v>11881</v>
-      </c>
-      <c r="N141">
-        <f t="shared" si="24"/>
-        <v>1521</v>
-      </c>
-      <c r="O141">
-        <v>1</v>
-      </c>
-      <c r="P141">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Q141">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>38</v>
-      </c>
-      <c r="C142" t="s">
-        <v>38</v>
-      </c>
-      <c r="D142">
-        <v>9</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-      <c r="F142">
-        <v>335</v>
-      </c>
-      <c r="G142">
-        <v>335</v>
-      </c>
-      <c r="H142">
-        <v>340</v>
-      </c>
-      <c r="I142">
-        <v>340</v>
-      </c>
-      <c r="J142">
-        <v>210</v>
-      </c>
-      <c r="K142">
-        <v>210</v>
-      </c>
-      <c r="L142">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="M142">
-        <v>25</v>
-      </c>
-      <c r="N142">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>1</v>
-      </c>
-      <c r="P142">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Q142">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>10</v>
-      </c>
-      <c r="B143" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" t="s">
-        <v>43</v>
-      </c>
-      <c r="D143">
-        <v>10</v>
-      </c>
-      <c r="E143">
-        <v>10</v>
-      </c>
-      <c r="F143">
-        <v>340</v>
-      </c>
-      <c r="G143">
-        <v>340</v>
-      </c>
-      <c r="H143">
-        <v>340</v>
-      </c>
-      <c r="I143">
-        <v>340</v>
-      </c>
-      <c r="J143">
-        <v>214</v>
-      </c>
-      <c r="K143">
-        <v>214</v>
-      </c>
-      <c r="L143">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L144" s="8">
-        <f>SUM(L134:L143)/10</f>
-        <v>7517.2</v>
-      </c>
-      <c r="M144" s="8">
-        <v>7517.2</v>
-      </c>
-      <c r="N144" s="8">
-        <f>SUM(N134:N143)/10</f>
-        <v>7682.7</v>
-      </c>
-      <c r="O144" s="8">
-        <f>SUM(O134:O143)/10</f>
-        <v>9.6</v>
-      </c>
-      <c r="P144" s="8">
-        <f t="shared" si="23"/>
-        <v>9.6</v>
-      </c>
-      <c r="Q144" s="8">
-        <f>SUM(Q134:Q143)/10</f>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="153" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
